--- a/amt/legibility/Survey_Qs_legibility.xlsx
+++ b/amt/legibility/Survey_Qs_legibility.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="grid-world" sheetId="1" state="visible" r:id="rId2"/>
@@ -207,14 +207,14 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.13"/>
   </cols>
   <sheetData>
@@ -354,14 +354,14 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.13"/>
   </cols>
   <sheetData>
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3</v>
